--- a/ExecucoesGerais/ex_porcentagem_tunado.xlsx
+++ b/ExecucoesGerais/ex_porcentagem_tunado.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14460" windowHeight="7965" activeTab="3"/>
+    <workbookView windowWidth="14460" windowHeight="7965" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="GRI" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="ROS" sheetId="3" r:id="rId3"/>
     <sheet name="SCH" sheetId="4" r:id="rId4"/>
     <sheet name="ACK" sheetId="5" r:id="rId5"/>
+    <sheet name="BEA" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="3">
   <si>
     <t>NFOB</t>
   </si>
@@ -35,9 +36,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -48,24 +49,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -73,6 +59,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -87,14 +80,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -105,6 +122,13 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -123,9 +147,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,25 +162,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,25 +177,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -201,13 +202,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -219,13 +226,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,19 +256,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,19 +286,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,31 +328,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,19 +340,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,13 +370,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,17 +396,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -429,7 +424,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -475,11 +470,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,121 +498,121 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -620,25 +621,25 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -14657,6 +14658,2795 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT" altLang="en-US"/>
+              <a:t>BEALE</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BEA!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AGEO1real1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>BEA!$A$2:$A$201</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10500</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11500</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13500</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14500</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16500</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17500</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>18500</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19500</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20500</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>21500</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>22500</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>23500</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>24500</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>25500</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>26500</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>27500</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>28500</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>29500</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>30500</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>31500</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>32500</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>33500</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>34500</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>35500</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>36500</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>37000</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>37500</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>38000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>38500</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>39000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>39500</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>40500</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>41500</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>42000</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>42500</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>43000</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>43500</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>44500</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45500</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>46000</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>46500</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>47000</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>47500</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>48000</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>48500</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>49000</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>49500</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>50500</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>51000</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>51500</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>52000</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>52500</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>53000</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>53500</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>54000</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>54500</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>55000</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>55500</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>56000</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>56500</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>57000</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>57500</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>58000</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>58500</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>59000</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>59500</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>60500</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>61000</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>61500</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>62000</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>62500</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>63000</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>63500</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>64000</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>64500</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>65000</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>65500</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>66000</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>66500</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>67000</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>67500</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>68000</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>68500</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>69000</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>69500</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>70500</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>71000</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>71500</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>72000</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>72500</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>73000</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>73500</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>74000</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>74500</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>75500</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>76000</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>76500</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>77000</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>77500</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>78000</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>78500</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>79000</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>79500</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>80500</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>81000</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>81500</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>82000</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>82500</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>83000</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>83500</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>84000</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>84500</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>85000</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>85500</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>86000</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>86500</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>87000</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>87500</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>88000</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>88500</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>89000</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>89500</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>90500</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>91000</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>91500</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>92000</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>92500</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>93000</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>93500</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>94000</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>94500</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>95000</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>95500</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>96000</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>96500</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>97000</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>97500</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>98000</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>98500</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>99000</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>99500</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>BEA!$B$2:$B$201</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>19.3449604765811</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0423261495332</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3514617981558</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.821650562243612</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.639100093464152</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.600312909695944</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.565391597871127</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.561899429575447</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.357630365528455</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.330714187579229</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.314399263941362</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.301864076919118</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.280292410107562</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.259383861896167</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.252208555739317</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.251044122989525</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.235409165742086</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.233203553532861</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.233197122351122</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.219697890859271</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.218749851880384</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.218749851880384</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.215440835750198</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.20075050177763</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.200141831024392</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.199911943309336</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.199911943309336</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.199898873726527</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.199891981613278</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.184989880365448</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.18471542143357</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.184404424333136</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.184401034219092</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.184334717969266</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.184289693787106</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.184289693787106</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.184289693787106</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.183775519381605</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.183770992888028</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.183768861620497</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.17883444842828</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.163362588007185</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.153092518809094</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.148339004483599</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.123532970370295</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.11981379947874</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.113236705640885</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.111173466366045</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.110416594082861</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.110412605896426</c:v>
+                </c:pt>
+                <c:pt idx="50" c:formatCode="General">
+                  <c:v>0.110400798805867</c:v>
+                </c:pt>
+                <c:pt idx="51" c:formatCode="General">
+                  <c:v>0.110378570531717</c:v>
+                </c:pt>
+                <c:pt idx="52" c:formatCode="General">
+                  <c:v>0.10761434392336</c:v>
+                </c:pt>
+                <c:pt idx="53" c:formatCode="General">
+                  <c:v>0.0990619884469133</c:v>
+                </c:pt>
+                <c:pt idx="54" c:formatCode="General">
+                  <c:v>0.0951090715254631</c:v>
+                </c:pt>
+                <c:pt idx="55" c:formatCode="General">
+                  <c:v>0.0951086413490106</c:v>
+                </c:pt>
+                <c:pt idx="56" c:formatCode="General">
+                  <c:v>0.0932093252902515</c:v>
+                </c:pt>
+                <c:pt idx="57" c:formatCode="General">
+                  <c:v>0.0931919671754691</c:v>
+                </c:pt>
+                <c:pt idx="58" c:formatCode="General">
+                  <c:v>0.0784793448440497</c:v>
+                </c:pt>
+                <c:pt idx="59" c:formatCode="General">
+                  <c:v>0.0784793448440497</c:v>
+                </c:pt>
+                <c:pt idx="60" c:formatCode="General">
+                  <c:v>0.0767598913654456</c:v>
+                </c:pt>
+                <c:pt idx="61" c:formatCode="General">
+                  <c:v>0.0767069912960442</c:v>
+                </c:pt>
+                <c:pt idx="62" c:formatCode="General">
+                  <c:v>0.0767069912960442</c:v>
+                </c:pt>
+                <c:pt idx="63" c:formatCode="General">
+                  <c:v>0.0767067544545243</c:v>
+                </c:pt>
+                <c:pt idx="64" c:formatCode="General">
+                  <c:v>0.0767067544545243</c:v>
+                </c:pt>
+                <c:pt idx="65" c:formatCode="General">
+                  <c:v>0.0765470545380122</c:v>
+                </c:pt>
+                <c:pt idx="66" c:formatCode="General">
+                  <c:v>0.0765437636140391</c:v>
+                </c:pt>
+                <c:pt idx="67" c:formatCode="General">
+                  <c:v>0.0765437636140391</c:v>
+                </c:pt>
+                <c:pt idx="68" c:formatCode="General">
+                  <c:v>0.0765437636140391</c:v>
+                </c:pt>
+                <c:pt idx="69" c:formatCode="General">
+                  <c:v>0.0764355880083861</c:v>
+                </c:pt>
+                <c:pt idx="70" c:formatCode="General">
+                  <c:v>0.0764355880083861</c:v>
+                </c:pt>
+                <c:pt idx="71" c:formatCode="General">
+                  <c:v>0.0764297668401858</c:v>
+                </c:pt>
+                <c:pt idx="72" c:formatCode="General">
+                  <c:v>0.0764297668401858</c:v>
+                </c:pt>
+                <c:pt idx="73" c:formatCode="General">
+                  <c:v>0.0764295961425628</c:v>
+                </c:pt>
+                <c:pt idx="74" c:formatCode="General">
+                  <c:v>0.0764261178546918</c:v>
+                </c:pt>
+                <c:pt idx="75" c:formatCode="General">
+                  <c:v>0.0764261178546918</c:v>
+                </c:pt>
+                <c:pt idx="76" c:formatCode="General">
+                  <c:v>0.0764261178546918</c:v>
+                </c:pt>
+                <c:pt idx="77" c:formatCode="General">
+                  <c:v>0.0764261178546918</c:v>
+                </c:pt>
+                <c:pt idx="78" c:formatCode="General">
+                  <c:v>0.0764261178546918</c:v>
+                </c:pt>
+                <c:pt idx="79" c:formatCode="General">
+                  <c:v>0.0764261178546918</c:v>
+                </c:pt>
+                <c:pt idx="80" c:formatCode="General">
+                  <c:v>0.0764261178546918</c:v>
+                </c:pt>
+                <c:pt idx="81" c:formatCode="General">
+                  <c:v>0.0764259147617747</c:v>
+                </c:pt>
+                <c:pt idx="82" c:formatCode="General">
+                  <c:v>0.0763119366151222</c:v>
+                </c:pt>
+                <c:pt idx="83" c:formatCode="General">
+                  <c:v>0.0642244748418886</c:v>
+                </c:pt>
+                <c:pt idx="84" c:formatCode="General">
+                  <c:v>0.0610774490876881</c:v>
+                </c:pt>
+                <c:pt idx="85" c:formatCode="General">
+                  <c:v>0.0610774490876881</c:v>
+                </c:pt>
+                <c:pt idx="86" c:formatCode="General">
+                  <c:v>0.0610774490876881</c:v>
+                </c:pt>
+                <c:pt idx="87" c:formatCode="General">
+                  <c:v>0.0458558951931383</c:v>
+                </c:pt>
+                <c:pt idx="88" c:formatCode="General">
+                  <c:v>0.0458069719538663</c:v>
+                </c:pt>
+                <c:pt idx="89" c:formatCode="General">
+                  <c:v>0.0458069719538663</c:v>
+                </c:pt>
+                <c:pt idx="90" c:formatCode="General">
+                  <c:v>0.0458069719538663</c:v>
+                </c:pt>
+                <c:pt idx="91" c:formatCode="General">
+                  <c:v>0.0458069719538663</c:v>
+                </c:pt>
+                <c:pt idx="92" c:formatCode="General">
+                  <c:v>0.0458069719538663</c:v>
+                </c:pt>
+                <c:pt idx="93" c:formatCode="General">
+                  <c:v>0.0458069719538663</c:v>
+                </c:pt>
+                <c:pt idx="94" c:formatCode="General">
+                  <c:v>0.0458069719538663</c:v>
+                </c:pt>
+                <c:pt idx="95" c:formatCode="General">
+                  <c:v>0.0458069719538663</c:v>
+                </c:pt>
+                <c:pt idx="96" c:formatCode="General">
+                  <c:v>0.0458069719538663</c:v>
+                </c:pt>
+                <c:pt idx="97" c:formatCode="General">
+                  <c:v>0.0458015480327624</c:v>
+                </c:pt>
+                <c:pt idx="98" c:formatCode="General">
+                  <c:v>0.0458007691240611</c:v>
+                </c:pt>
+                <c:pt idx="99" c:formatCode="General">
+                  <c:v>0.0458001387729825</c:v>
+                </c:pt>
+                <c:pt idx="100" c:formatCode="General">
+                  <c:v>0.0457925802395475</c:v>
+                </c:pt>
+                <c:pt idx="101" c:formatCode="General">
+                  <c:v>0.0457925802395475</c:v>
+                </c:pt>
+                <c:pt idx="102" c:formatCode="General">
+                  <c:v>0.0457925802395475</c:v>
+                </c:pt>
+                <c:pt idx="103" c:formatCode="General">
+                  <c:v>0.0457925802395475</c:v>
+                </c:pt>
+                <c:pt idx="104" c:formatCode="General">
+                  <c:v>0.0457925802395475</c:v>
+                </c:pt>
+                <c:pt idx="105" c:formatCode="General">
+                  <c:v>0.0457925802395475</c:v>
+                </c:pt>
+                <c:pt idx="106" c:formatCode="General">
+                  <c:v>0.0457894282606475</c:v>
+                </c:pt>
+                <c:pt idx="107" c:formatCode="General">
+                  <c:v>0.045788433119467</c:v>
+                </c:pt>
+                <c:pt idx="108" c:formatCode="General">
+                  <c:v>0.0457883429700794</c:v>
+                </c:pt>
+                <c:pt idx="109" c:formatCode="General">
+                  <c:v>0.0457883429700794</c:v>
+                </c:pt>
+                <c:pt idx="110" c:formatCode="General">
+                  <c:v>0.0457883429700794</c:v>
+                </c:pt>
+                <c:pt idx="111" c:formatCode="General">
+                  <c:v>0.0457876687742652</c:v>
+                </c:pt>
+                <c:pt idx="112" c:formatCode="General">
+                  <c:v>0.0457872797125615</c:v>
+                </c:pt>
+                <c:pt idx="113" c:formatCode="General">
+                  <c:v>0.0457872797125615</c:v>
+                </c:pt>
+                <c:pt idx="114" c:formatCode="General">
+                  <c:v>0.0457868844974854</c:v>
+                </c:pt>
+                <c:pt idx="115" c:formatCode="General">
+                  <c:v>0.0457868844974854</c:v>
+                </c:pt>
+                <c:pt idx="116" c:formatCode="General">
+                  <c:v>0.0457868844974854</c:v>
+                </c:pt>
+                <c:pt idx="117" c:formatCode="General">
+                  <c:v>0.0457868844974854</c:v>
+                </c:pt>
+                <c:pt idx="118" c:formatCode="General">
+                  <c:v>0.0457865494813079</c:v>
+                </c:pt>
+                <c:pt idx="119" c:formatCode="General">
+                  <c:v>0.0457865494813079</c:v>
+                </c:pt>
+                <c:pt idx="120" c:formatCode="General">
+                  <c:v>0.0457798866626687</c:v>
+                </c:pt>
+                <c:pt idx="121" c:formatCode="General">
+                  <c:v>0.0457782191945111</c:v>
+                </c:pt>
+                <c:pt idx="122" c:formatCode="General">
+                  <c:v>0.0457782191945111</c:v>
+                </c:pt>
+                <c:pt idx="123" c:formatCode="General">
+                  <c:v>0.0457782191945111</c:v>
+                </c:pt>
+                <c:pt idx="124" c:formatCode="General">
+                  <c:v>0.0457782191945111</c:v>
+                </c:pt>
+                <c:pt idx="125" c:formatCode="General">
+                  <c:v>0.0457752949036611</c:v>
+                </c:pt>
+                <c:pt idx="126" c:formatCode="General">
+                  <c:v>0.0457752949036611</c:v>
+                </c:pt>
+                <c:pt idx="127" c:formatCode="General">
+                  <c:v>0.0182016435388121</c:v>
+                </c:pt>
+                <c:pt idx="128" c:formatCode="General">
+                  <c:v>0.0152836104066175</c:v>
+                </c:pt>
+                <c:pt idx="129" c:formatCode="General">
+                  <c:v>0.0152836104066175</c:v>
+                </c:pt>
+                <c:pt idx="130" c:formatCode="General">
+                  <c:v>0.0152771898843442</c:v>
+                </c:pt>
+                <c:pt idx="131" c:formatCode="General">
+                  <c:v>0.0152771898843442</c:v>
+                </c:pt>
+                <c:pt idx="132" c:formatCode="General">
+                  <c:v>0.0152733267201603</c:v>
+                </c:pt>
+                <c:pt idx="133" c:formatCode="General">
+                  <c:v>0.0152733267201603</c:v>
+                </c:pt>
+                <c:pt idx="134" c:formatCode="General">
+                  <c:v>0.0152733267201603</c:v>
+                </c:pt>
+                <c:pt idx="135" c:formatCode="General">
+                  <c:v>0.0152733267201603</c:v>
+                </c:pt>
+                <c:pt idx="136" c:formatCode="General">
+                  <c:v>0.0152733267201603</c:v>
+                </c:pt>
+                <c:pt idx="137" c:formatCode="General">
+                  <c:v>0.0152732751800218</c:v>
+                </c:pt>
+                <c:pt idx="138" c:formatCode="General">
+                  <c:v>0.0152724073753676</c:v>
+                </c:pt>
+                <c:pt idx="139" c:formatCode="General">
+                  <c:v>0.0152722660945908</c:v>
+                </c:pt>
+                <c:pt idx="140" c:formatCode="General">
+                  <c:v>0.0152722660945908</c:v>
+                </c:pt>
+                <c:pt idx="141" c:formatCode="General">
+                  <c:v>0.0152722660945908</c:v>
+                </c:pt>
+                <c:pt idx="142" c:formatCode="General">
+                  <c:v>0.0152722660945908</c:v>
+                </c:pt>
+                <c:pt idx="143" c:formatCode="General">
+                  <c:v>0.0152646589861135</c:v>
+                </c:pt>
+                <c:pt idx="144" c:formatCode="General">
+                  <c:v>0.0152645022322623</c:v>
+                </c:pt>
+                <c:pt idx="145" c:formatCode="General">
+                  <c:v>0.0152645022322623</c:v>
+                </c:pt>
+                <c:pt idx="146" c:formatCode="General">
+                  <c:v>0.015263053267557</c:v>
+                </c:pt>
+                <c:pt idx="147" c:formatCode="General">
+                  <c:v>0.015263053267557</c:v>
+                </c:pt>
+                <c:pt idx="148" c:formatCode="General">
+                  <c:v>0.0152629643834573</c:v>
+                </c:pt>
+                <c:pt idx="149" c:formatCode="General">
+                  <c:v>0.0152629643834573</c:v>
+                </c:pt>
+                <c:pt idx="150" c:formatCode="General">
+                  <c:v>0.0152629643834573</c:v>
+                </c:pt>
+                <c:pt idx="151" c:formatCode="General">
+                  <c:v>0.0152623865951644</c:v>
+                </c:pt>
+                <c:pt idx="152" c:formatCode="General">
+                  <c:v>0.0152618173836345</c:v>
+                </c:pt>
+                <c:pt idx="153" c:formatCode="General">
+                  <c:v>0.0152615629878442</c:v>
+                </c:pt>
+                <c:pt idx="154" c:formatCode="General">
+                  <c:v>0.0152615629878442</c:v>
+                </c:pt>
+                <c:pt idx="155" c:formatCode="General">
+                  <c:v>0.0152598155309827</c:v>
+                </c:pt>
+                <c:pt idx="156" c:formatCode="General">
+                  <c:v>0.0152589881106286</c:v>
+                </c:pt>
+                <c:pt idx="157" c:formatCode="General">
+                  <c:v>0.0152589881106286</c:v>
+                </c:pt>
+                <c:pt idx="158" c:formatCode="General">
+                  <c:v>0.0152573756070943</c:v>
+                </c:pt>
+                <c:pt idx="159" c:formatCode="General">
+                  <c:v>0.0152573756070943</c:v>
+                </c:pt>
+                <c:pt idx="160" c:formatCode="General">
+                  <c:v>0.0152573756070943</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>7.15538050707238e-5</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>3.15442100736267e-5</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>3.11934257046154e-5</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>3.11934257046154e-5</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>3.11934257046154e-5</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2.01560947399942e-5</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2.01560947399942e-5</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2.01560947399942e-5</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2.01560947399942e-5</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2.01560947399942e-5</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2.01560947399942e-5</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1.97456593330021e-5</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1.97456593330021e-5</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1.89571848111506e-5</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1.89571848111506e-5</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1.84779420535246e-5</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1.84779420535246e-5</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1.84779420535246e-5</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1.80884477433222e-5</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1.80884477433222e-5</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1.80884477433222e-5</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1.80884477433222e-5</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1.80884477433222e-5</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1.80884477433222e-5</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1.79079274052946e-5</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1.77800001741839e-5</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1.7662162887864e-5</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1.7662162887864e-5</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1.75183282481599e-5</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1.75183282481599e-5</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1.75183282481599e-5</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1.75183282481599e-5</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1.75183282481599e-5</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>1.75183282481599e-5</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1.75183282481599e-5</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1.68997578142782e-5</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1.68997578142782e-5</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1.68997578142782e-5</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1.68997578142782e-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BEA!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AGEO2real1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>BEA!$A$2:$A$201</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10500</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11500</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13500</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14500</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16500</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17500</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>18500</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19500</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20500</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>21500</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>22500</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>23500</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>24500</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>25500</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>26500</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>27500</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>28500</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>29500</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>30500</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>31500</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>32500</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>33500</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>34500</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>35500</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>36500</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>37000</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>37500</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>38000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>38500</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>39000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>39500</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>40500</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>41500</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>42000</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>42500</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>43000</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>43500</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>44500</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45500</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>46000</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>46500</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>47000</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>47500</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>48000</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>48500</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>49000</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>49500</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>50500</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>51000</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>51500</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>52000</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>52500</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>53000</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>53500</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>54000</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>54500</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>55000</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>55500</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>56000</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>56500</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>57000</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>57500</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>58000</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>58500</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>59000</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>59500</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>60500</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>61000</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>61500</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>62000</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>62500</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>63000</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>63500</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>64000</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>64500</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>65000</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>65500</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>66000</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>66500</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>67000</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>67500</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>68000</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>68500</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>69000</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>69500</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>70500</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>71000</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>71500</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>72000</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>72500</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>73000</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>73500</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>74000</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>74500</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>75500</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>76000</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>76500</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>77000</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>77500</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>78000</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>78500</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>79000</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>79500</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>80500</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>81000</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>81500</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>82000</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>82500</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>83000</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>83500</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>84000</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>84500</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>85000</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>85500</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>86000</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>86500</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>87000</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>87500</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>88000</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>88500</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>89000</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>89500</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>90500</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>91000</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>91500</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>92000</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>92500</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>93000</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>93500</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>94000</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>94500</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>95000</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>95500</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>96000</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>96500</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>97000</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>97500</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>98000</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>98500</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>99000</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>99500</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>BEA!$C$2:$C$201</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>4.7524504290931</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.798327009559106</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.374006381549464</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3172946280344</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.307642794338093</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.286216641074845</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.266219943998155</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.247126902159209</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.244402722913742</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.227259564019548</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.226448067198132</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.226446656930978</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.225941976547</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.225274396060972</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.221365388636064</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.219562475363068</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.218776815650666</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.218776815650666</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.218696127595841</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.215609079704688</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.215441750802258</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.215336004678056</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.215334609765967</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.215334609765967</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.185000707084251</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.184942493485844</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.169763479486428</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.168798134511243</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.165055340642354</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.153328512693115</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.153067133312718</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.153004009516184</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.153004009516184</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.152993368063996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.152993368063996</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.152993260684202</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.137732748062917</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.13770597677575</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.137702368175874</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.109860354176927</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.107196582677636</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.107187460761565</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.107181040555976</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.107178036331371</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.107164029440684</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.107162032206257</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.0960265532441429</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.0917978412446252</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.0917515524244555</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.0917515524244555</c:v>
+                </c:pt>
+                <c:pt idx="50" c:formatCode="General">
+                  <c:v>0.0917475374099322</c:v>
+                </c:pt>
+                <c:pt idx="51" c:formatCode="General">
+                  <c:v>0.0917473866595827</c:v>
+                </c:pt>
+                <c:pt idx="52" c:formatCode="General">
+                  <c:v>0.0916451822682517</c:v>
+                </c:pt>
+                <c:pt idx="53" c:formatCode="General">
+                  <c:v>0.0916348147341254</c:v>
+                </c:pt>
+                <c:pt idx="54" c:formatCode="General">
+                  <c:v>0.0916346352136888</c:v>
+                </c:pt>
+                <c:pt idx="55" c:formatCode="General">
+                  <c:v>0.0916338544774305</c:v>
+                </c:pt>
+                <c:pt idx="56" c:formatCode="General">
+                  <c:v>0.0916211539602205</c:v>
+                </c:pt>
+                <c:pt idx="57" c:formatCode="General">
+                  <c:v>0.0916211539602205</c:v>
+                </c:pt>
+                <c:pt idx="58" c:formatCode="General">
+                  <c:v>0.0916200119016094</c:v>
+                </c:pt>
+                <c:pt idx="59" c:formatCode="General">
+                  <c:v>0.0916200119016094</c:v>
+                </c:pt>
+                <c:pt idx="60" c:formatCode="General">
+                  <c:v>0.0916168016599661</c:v>
+                </c:pt>
+                <c:pt idx="61" c:formatCode="General">
+                  <c:v>0.0916155036500488</c:v>
+                </c:pt>
+                <c:pt idx="62" c:formatCode="General">
+                  <c:v>0.0771184913829423</c:v>
+                </c:pt>
+                <c:pt idx="63" c:formatCode="General">
+                  <c:v>0.0763513333883995</c:v>
+                </c:pt>
+                <c:pt idx="64" c:formatCode="General">
+                  <c:v>0.0610017547852731</c:v>
+                </c:pt>
+                <c:pt idx="65" c:formatCode="General">
+                  <c:v>0.0610017547852731</c:v>
+                </c:pt>
+                <c:pt idx="66" c:formatCode="General">
+                  <c:v>0.0609977547921174</c:v>
+                </c:pt>
+                <c:pt idx="67" c:formatCode="General">
+                  <c:v>0.0609904944088216</c:v>
+                </c:pt>
+                <c:pt idx="68" c:formatCode="General">
+                  <c:v>0.0609895044825635</c:v>
+                </c:pt>
+                <c:pt idx="69" c:formatCode="General">
+                  <c:v>0.060989297371868</c:v>
+                </c:pt>
+                <c:pt idx="70" c:formatCode="General">
+                  <c:v>0.0609888768674078</c:v>
+                </c:pt>
+                <c:pt idx="71" c:formatCode="General">
+                  <c:v>0.0609888768674078</c:v>
+                </c:pt>
+                <c:pt idx="72" c:formatCode="General">
+                  <c:v>0.0492147452447375</c:v>
+                </c:pt>
+                <c:pt idx="73" c:formatCode="General">
+                  <c:v>0.045860047173264</c:v>
+                </c:pt>
+                <c:pt idx="74" c:formatCode="General">
+                  <c:v>0.0457642729942944</c:v>
+                </c:pt>
+                <c:pt idx="75" c:formatCode="General">
+                  <c:v>0.0457642729942944</c:v>
+                </c:pt>
+                <c:pt idx="76" c:formatCode="General">
+                  <c:v>0.0457642251656792</c:v>
+                </c:pt>
+                <c:pt idx="77" c:formatCode="General">
+                  <c:v>0.0457549893235696</c:v>
+                </c:pt>
+                <c:pt idx="78" c:formatCode="General">
+                  <c:v>0.0457530703960371</c:v>
+                </c:pt>
+                <c:pt idx="79" c:formatCode="General">
+                  <c:v>0.0457529941872958</c:v>
+                </c:pt>
+                <c:pt idx="80" c:formatCode="General">
+                  <c:v>0.0307216512398181</c:v>
+                </c:pt>
+                <c:pt idx="81" c:formatCode="General">
+                  <c:v>0.0305087558778591</c:v>
+                </c:pt>
+                <c:pt idx="82" c:formatCode="General">
+                  <c:v>0.0305083049076562</c:v>
+                </c:pt>
+                <c:pt idx="83" c:formatCode="General">
+                  <c:v>0.0305075291848723</c:v>
+                </c:pt>
+                <c:pt idx="84" c:formatCode="General">
+                  <c:v>0.0304969016643246</c:v>
+                </c:pt>
+                <c:pt idx="85" c:formatCode="General">
+                  <c:v>0.0304965941278598</c:v>
+                </c:pt>
+                <c:pt idx="86" c:formatCode="General">
+                  <c:v>0.030496180226944</c:v>
+                </c:pt>
+                <c:pt idx="87" c:formatCode="General">
+                  <c:v>0.030496180226944</c:v>
+                </c:pt>
+                <c:pt idx="88" c:formatCode="General">
+                  <c:v>0.030496180226944</c:v>
+                </c:pt>
+                <c:pt idx="89" c:formatCode="General">
+                  <c:v>0.0304960891100453</c:v>
+                </c:pt>
+                <c:pt idx="90" c:formatCode="General">
+                  <c:v>0.0304960891100453</c:v>
+                </c:pt>
+                <c:pt idx="91" c:formatCode="General">
+                  <c:v>0.0304931136303768</c:v>
+                </c:pt>
+                <c:pt idx="92" c:formatCode="General">
+                  <c:v>0.0304931136303768</c:v>
+                </c:pt>
+                <c:pt idx="93" c:formatCode="General">
+                  <c:v>0.0304930396656177</c:v>
+                </c:pt>
+                <c:pt idx="94" c:formatCode="General">
+                  <c:v>0.0304930396656177</c:v>
+                </c:pt>
+                <c:pt idx="95" c:formatCode="General">
+                  <c:v>0.0304930396656177</c:v>
+                </c:pt>
+                <c:pt idx="96" c:formatCode="General">
+                  <c:v>0.0304925581604246</c:v>
+                </c:pt>
+                <c:pt idx="97" c:formatCode="General">
+                  <c:v>0.0304923801144036</c:v>
+                </c:pt>
+                <c:pt idx="98" c:formatCode="General">
+                  <c:v>0.0304923801144036</c:v>
+                </c:pt>
+                <c:pt idx="99" c:formatCode="General">
+                  <c:v>0.0304897696391864</c:v>
+                </c:pt>
+                <c:pt idx="100" c:formatCode="General">
+                  <c:v>0.0304897696391864</c:v>
+                </c:pt>
+                <c:pt idx="101" c:formatCode="General">
+                  <c:v>0.0304897696391864</c:v>
+                </c:pt>
+                <c:pt idx="102" c:formatCode="General">
+                  <c:v>0.0170308759525599</c:v>
+                </c:pt>
+                <c:pt idx="103" c:formatCode="General">
+                  <c:v>0.0152604301728555</c:v>
+                </c:pt>
+                <c:pt idx="104" c:formatCode="General">
+                  <c:v>0.0152604301728555</c:v>
+                </c:pt>
+                <c:pt idx="105" c:formatCode="General">
+                  <c:v>0.0152557274019566</c:v>
+                </c:pt>
+                <c:pt idx="106" c:formatCode="General">
+                  <c:v>0.000454729835452125</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>4.61326604879979e-5</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>4.61326604879979e-5</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>4.61326604879979e-5</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>4.61326604879979e-5</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>4.56173567991116e-5</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>4.56173567991116e-5</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>3.62070303679228e-5</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>3.43330764231615e-5</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>3.43330764231615e-5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2.08231311058106e-5</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2.08231311058106e-5</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.8739553717049e-5</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.8739553717049e-5</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.8739553717049e-5</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.8739553717049e-5</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.8739553717049e-5</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.8739553717049e-5</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.8739553717049e-5</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.8739553717049e-5</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.8739553717049e-5</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.871723182409e-5</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.871723182409e-5</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.871723182409e-5</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.871723182409e-5</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.871723182409e-5</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.871723182409e-5</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.82605502882424e-5</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.69142965322841e-5</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.69142965322841e-5</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.62928570518112e-5</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1.62928570518112e-5</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1.62928570518112e-5</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1.62899059015712e-5</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1.55733249531521e-5</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1.55733249531521e-5</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1.55733249531521e-5</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1.55733249531521e-5</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1.55733249531521e-5</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1.55299916559053e-5</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1.55299916559053e-5</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1.55299916559053e-5</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1.53211816589994e-5</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1.53211816589994e-5</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1.53211816589994e-5</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1.53211816589994e-5</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1.53211816589994e-5</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1.53211816589994e-5</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1.53211816589994e-5</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1.53211816589994e-5</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1.53211816589994e-5</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1.51690015308943e-5</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1.51690015308943e-5</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1.51269956735847e-5</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1.45052622076754e-5</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1.44276233718791e-5</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1.40351271767281e-5</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1.40351271767281e-5</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1.40351271767281e-5</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1.40351271767281e-5</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1.40351271767281e-5</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1.3838890593963e-5</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1.34187685512039e-5</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1.33552901448878e-5</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1.33552901448878e-5</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1.31680680343599e-5</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1.31680680343599e-5</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1.27811454879823e-5</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1.23771478939751e-5</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1.23771478939751e-5</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1.19940193924109e-5</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1.19940193924109e-5</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1.19940193924109e-5</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1.19940193924109e-5</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1.19940193924109e-5</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1.14741725679817e-5</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1.14741725679817e-5</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1.14737515127859e-5</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1.12454984345033e-5</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1.12454984345033e-5</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1.124402576959e-5</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1.124402576959e-5</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1.124402576959e-5</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1.124402576959e-5</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1.124402576959e-5</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1.08728637892797e-5</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1.08728637892797e-5</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1.08728637892797e-5</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>1.07050680743931e-5</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1.07050680743931e-5</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1.02609203059085e-5</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1.02609203059085e-5</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1.02404003353042e-5</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1.02404003353042e-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="590109553"/>
+        <c:axId val="285063781"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="590109553"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="285063781"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="285063781"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="590109553"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -14818,6 +17608,46 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -17437,6 +20267,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -17599,6 +20945,41 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2752725" y="33508950"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>606425</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>377825</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="3644900" y="34620200"/>
         <a:ext cx="4572000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
@@ -17873,7 +21254,7 @@
   <dimension ref="A1:C201"/>
   <sheetViews>
     <sheetView topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C201"/>
+      <selection activeCell="L187" sqref="L187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -24568,7 +27949,7 @@
   <sheetPr/>
   <dimension ref="A1:C201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
+    <sheetView topLeftCell="A183" workbookViewId="0">
       <selection activeCell="D201" sqref="D201"/>
     </sheetView>
   </sheetViews>
@@ -26800,8 +30181,8 @@
   <sheetPr/>
   <dimension ref="A1:C201"/>
   <sheetViews>
-    <sheetView topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C201"/>
+    <sheetView topLeftCell="A183" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -29025,4 +32406,2237 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C201"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="F189" sqref="F189"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="6.625" customWidth="1"/>
+    <col min="2" max="3" width="12.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>500</v>
+      </c>
+      <c r="B2" s="1">
+        <v>19.3449604765811</v>
+      </c>
+      <c r="C2" s="1">
+        <v>4.7524504290931</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>1000</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2.0423261495332</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.798327009559106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>1500</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1.3514617981558</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.374006381549464</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>2000</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.821650562243612</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.3172946280344</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>2500</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.639100093464152</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.307642794338093</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>3000</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.600312909695944</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.286216641074845</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>3500</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.565391597871127</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.266219943998155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>4000</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.561899429575447</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.247126902159209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>4500</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.357630365528455</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.244402722913742</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>5000</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.330714187579229</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.227259564019548</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>5500</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.314399263941362</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.226448067198132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>6000</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.301864076919118</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.226446656930978</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>6500</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.280292410107562</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.225941976547</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>7000</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.259383861896167</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.225274396060972</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>7500</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.252208555739317</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.221365388636064</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>8000</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.251044122989525</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.219562475363068</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>8500</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.235409165742086</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.218776815650666</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>9000</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.233203553532861</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.218776815650666</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>9500</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.233197122351122</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.218696127595841</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>10000</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.219697890859271</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.215609079704688</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>10500</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.218749851880384</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.215441750802258</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>11000</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.218749851880384</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.215336004678056</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>11500</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.215440835750198</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.215334609765967</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>12000</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.20075050177763</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.215334609765967</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>12500</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.200141831024392</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.185000707084251</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>13000</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.199911943309336</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.184942493485844</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>13500</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.199911943309336</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.169763479486428</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>14000</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.199898873726527</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.168798134511243</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>14500</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.199891981613278</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.165055340642354</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>15000</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.184989880365448</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.153328512693115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>15500</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.18471542143357</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.153067133312718</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>16000</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.184404424333136</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.153004009516184</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>16500</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.184401034219092</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.153004009516184</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>17000</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.184334717969266</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.152993368063996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>17500</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0.184289693787106</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.152993368063996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>18000</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0.184289693787106</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.152993260684202</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>18500</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0.184289693787106</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.137732748062917</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>19000</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0.183775519381605</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.13770597677575</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>19500</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0.183770992888028</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.137702368175874</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>20000</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0.183768861620497</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.109860354176927</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>20500</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0.17883444842828</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.107196582677636</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>21000</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0.163362588007185</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.107187460761565</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>21500</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0.153092518809094</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.107181040555976</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>22000</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0.148339004483599</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.107178036331371</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>22500</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0.123532970370295</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.107164029440684</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>23000</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0.11981379947874</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.107162032206257</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>23500</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0.113236705640885</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.0960265532441429</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>24000</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0.111173466366045</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.0917978412446252</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>24500</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0.110416594082861</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.0917515524244555</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>25000</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0.110412605896426</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.0917515524244555</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>25500</v>
+      </c>
+      <c r="B52">
+        <v>0.110400798805867</v>
+      </c>
+      <c r="C52">
+        <v>0.0917475374099322</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>26000</v>
+      </c>
+      <c r="B53">
+        <v>0.110378570531717</v>
+      </c>
+      <c r="C53">
+        <v>0.0917473866595827</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>26500</v>
+      </c>
+      <c r="B54">
+        <v>0.10761434392336</v>
+      </c>
+      <c r="C54">
+        <v>0.0916451822682517</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>27000</v>
+      </c>
+      <c r="B55">
+        <v>0.0990619884469133</v>
+      </c>
+      <c r="C55">
+        <v>0.0916348147341254</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>27500</v>
+      </c>
+      <c r="B56">
+        <v>0.0951090715254631</v>
+      </c>
+      <c r="C56">
+        <v>0.0916346352136888</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>28000</v>
+      </c>
+      <c r="B57">
+        <v>0.0951086413490106</v>
+      </c>
+      <c r="C57">
+        <v>0.0916338544774305</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>28500</v>
+      </c>
+      <c r="B58">
+        <v>0.0932093252902515</v>
+      </c>
+      <c r="C58">
+        <v>0.0916211539602205</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>29000</v>
+      </c>
+      <c r="B59">
+        <v>0.0931919671754691</v>
+      </c>
+      <c r="C59">
+        <v>0.0916211539602205</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>29500</v>
+      </c>
+      <c r="B60">
+        <v>0.0784793448440497</v>
+      </c>
+      <c r="C60">
+        <v>0.0916200119016094</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>30000</v>
+      </c>
+      <c r="B61">
+        <v>0.0784793448440497</v>
+      </c>
+      <c r="C61">
+        <v>0.0916200119016094</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>30500</v>
+      </c>
+      <c r="B62">
+        <v>0.0767598913654456</v>
+      </c>
+      <c r="C62">
+        <v>0.0916168016599661</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>31000</v>
+      </c>
+      <c r="B63">
+        <v>0.0767069912960442</v>
+      </c>
+      <c r="C63">
+        <v>0.0916155036500488</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>31500</v>
+      </c>
+      <c r="B64">
+        <v>0.0767069912960442</v>
+      </c>
+      <c r="C64">
+        <v>0.0771184913829423</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>32000</v>
+      </c>
+      <c r="B65">
+        <v>0.0767067544545243</v>
+      </c>
+      <c r="C65">
+        <v>0.0763513333883995</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>32500</v>
+      </c>
+      <c r="B66">
+        <v>0.0767067544545243</v>
+      </c>
+      <c r="C66">
+        <v>0.0610017547852731</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>33000</v>
+      </c>
+      <c r="B67">
+        <v>0.0765470545380122</v>
+      </c>
+      <c r="C67">
+        <v>0.0610017547852731</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>33500</v>
+      </c>
+      <c r="B68">
+        <v>0.0765437636140391</v>
+      </c>
+      <c r="C68">
+        <v>0.0609977547921174</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>34000</v>
+      </c>
+      <c r="B69">
+        <v>0.0765437636140391</v>
+      </c>
+      <c r="C69">
+        <v>0.0609904944088216</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>34500</v>
+      </c>
+      <c r="B70">
+        <v>0.0765437636140391</v>
+      </c>
+      <c r="C70">
+        <v>0.0609895044825635</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>35000</v>
+      </c>
+      <c r="B71">
+        <v>0.0764355880083861</v>
+      </c>
+      <c r="C71">
+        <v>0.060989297371868</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>35500</v>
+      </c>
+      <c r="B72">
+        <v>0.0764355880083861</v>
+      </c>
+      <c r="C72">
+        <v>0.0609888768674078</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>36000</v>
+      </c>
+      <c r="B73">
+        <v>0.0764297668401858</v>
+      </c>
+      <c r="C73">
+        <v>0.0609888768674078</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>36500</v>
+      </c>
+      <c r="B74">
+        <v>0.0764297668401858</v>
+      </c>
+      <c r="C74">
+        <v>0.0492147452447375</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>37000</v>
+      </c>
+      <c r="B75">
+        <v>0.0764295961425628</v>
+      </c>
+      <c r="C75">
+        <v>0.045860047173264</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>37500</v>
+      </c>
+      <c r="B76">
+        <v>0.0764261178546918</v>
+      </c>
+      <c r="C76">
+        <v>0.0457642729942944</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>38000</v>
+      </c>
+      <c r="B77">
+        <v>0.0764261178546918</v>
+      </c>
+      <c r="C77">
+        <v>0.0457642729942944</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <v>38500</v>
+      </c>
+      <c r="B78">
+        <v>0.0764261178546918</v>
+      </c>
+      <c r="C78">
+        <v>0.0457642251656792</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <v>39000</v>
+      </c>
+      <c r="B79">
+        <v>0.0764261178546918</v>
+      </c>
+      <c r="C79">
+        <v>0.0457549893235696</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>39500</v>
+      </c>
+      <c r="B80">
+        <v>0.0764261178546918</v>
+      </c>
+      <c r="C80">
+        <v>0.0457530703960371</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>40000</v>
+      </c>
+      <c r="B81">
+        <v>0.0764261178546918</v>
+      </c>
+      <c r="C81">
+        <v>0.0457529941872958</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>40500</v>
+      </c>
+      <c r="B82">
+        <v>0.0764261178546918</v>
+      </c>
+      <c r="C82">
+        <v>0.0307216512398181</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>41000</v>
+      </c>
+      <c r="B83">
+        <v>0.0764259147617747</v>
+      </c>
+      <c r="C83">
+        <v>0.0305087558778591</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>41500</v>
+      </c>
+      <c r="B84">
+        <v>0.0763119366151222</v>
+      </c>
+      <c r="C84">
+        <v>0.0305083049076562</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>42000</v>
+      </c>
+      <c r="B85">
+        <v>0.0642244748418886</v>
+      </c>
+      <c r="C85">
+        <v>0.0305075291848723</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>42500</v>
+      </c>
+      <c r="B86">
+        <v>0.0610774490876881</v>
+      </c>
+      <c r="C86">
+        <v>0.0304969016643246</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>43000</v>
+      </c>
+      <c r="B87">
+        <v>0.0610774490876881</v>
+      </c>
+      <c r="C87">
+        <v>0.0304965941278598</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>43500</v>
+      </c>
+      <c r="B88">
+        <v>0.0610774490876881</v>
+      </c>
+      <c r="C88">
+        <v>0.030496180226944</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>44000</v>
+      </c>
+      <c r="B89">
+        <v>0.0458558951931383</v>
+      </c>
+      <c r="C89">
+        <v>0.030496180226944</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>44500</v>
+      </c>
+      <c r="B90">
+        <v>0.0458069719538663</v>
+      </c>
+      <c r="C90">
+        <v>0.030496180226944</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <v>45000</v>
+      </c>
+      <c r="B91">
+        <v>0.0458069719538663</v>
+      </c>
+      <c r="C91">
+        <v>0.0304960891100453</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>45500</v>
+      </c>
+      <c r="B92">
+        <v>0.0458069719538663</v>
+      </c>
+      <c r="C92">
+        <v>0.0304960891100453</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <v>46000</v>
+      </c>
+      <c r="B93">
+        <v>0.0458069719538663</v>
+      </c>
+      <c r="C93">
+        <v>0.0304931136303768</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <v>46500</v>
+      </c>
+      <c r="B94">
+        <v>0.0458069719538663</v>
+      </c>
+      <c r="C94">
+        <v>0.0304931136303768</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
+        <v>47000</v>
+      </c>
+      <c r="B95">
+        <v>0.0458069719538663</v>
+      </c>
+      <c r="C95">
+        <v>0.0304930396656177</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
+        <v>47500</v>
+      </c>
+      <c r="B96">
+        <v>0.0458069719538663</v>
+      </c>
+      <c r="C96">
+        <v>0.0304930396656177</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <v>48000</v>
+      </c>
+      <c r="B97">
+        <v>0.0458069719538663</v>
+      </c>
+      <c r="C97">
+        <v>0.0304930396656177</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <v>48500</v>
+      </c>
+      <c r="B98">
+        <v>0.0458069719538663</v>
+      </c>
+      <c r="C98">
+        <v>0.0304925581604246</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99">
+        <v>49000</v>
+      </c>
+      <c r="B99">
+        <v>0.0458015480327624</v>
+      </c>
+      <c r="C99">
+        <v>0.0304923801144036</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100">
+        <v>49500</v>
+      </c>
+      <c r="B100">
+        <v>0.0458007691240611</v>
+      </c>
+      <c r="C100">
+        <v>0.0304923801144036</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101">
+        <v>50000</v>
+      </c>
+      <c r="B101">
+        <v>0.0458001387729825</v>
+      </c>
+      <c r="C101">
+        <v>0.0304897696391864</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102">
+        <v>50500</v>
+      </c>
+      <c r="B102">
+        <v>0.0457925802395475</v>
+      </c>
+      <c r="C102">
+        <v>0.0304897696391864</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103">
+        <v>51000</v>
+      </c>
+      <c r="B103">
+        <v>0.0457925802395475</v>
+      </c>
+      <c r="C103">
+        <v>0.0304897696391864</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104">
+        <v>51500</v>
+      </c>
+      <c r="B104">
+        <v>0.0457925802395475</v>
+      </c>
+      <c r="C104">
+        <v>0.0170308759525599</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105">
+        <v>52000</v>
+      </c>
+      <c r="B105">
+        <v>0.0457925802395475</v>
+      </c>
+      <c r="C105">
+        <v>0.0152604301728555</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106">
+        <v>52500</v>
+      </c>
+      <c r="B106">
+        <v>0.0457925802395475</v>
+      </c>
+      <c r="C106">
+        <v>0.0152604301728555</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107">
+        <v>53000</v>
+      </c>
+      <c r="B107">
+        <v>0.0457925802395475</v>
+      </c>
+      <c r="C107">
+        <v>0.0152557274019566</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108">
+        <v>53500</v>
+      </c>
+      <c r="B108">
+        <v>0.0457894282606475</v>
+      </c>
+      <c r="C108">
+        <v>0.000454729835452125</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109">
+        <v>54000</v>
+      </c>
+      <c r="B109">
+        <v>0.045788433119467</v>
+      </c>
+      <c r="C109" s="1">
+        <v>4.61326604879979e-5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110">
+        <v>54500</v>
+      </c>
+      <c r="B110">
+        <v>0.0457883429700794</v>
+      </c>
+      <c r="C110" s="1">
+        <v>4.61326604879979e-5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111">
+        <v>55000</v>
+      </c>
+      <c r="B111">
+        <v>0.0457883429700794</v>
+      </c>
+      <c r="C111" s="1">
+        <v>4.61326604879979e-5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112">
+        <v>55500</v>
+      </c>
+      <c r="B112">
+        <v>0.0457883429700794</v>
+      </c>
+      <c r="C112" s="1">
+        <v>4.61326604879979e-5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113">
+        <v>56000</v>
+      </c>
+      <c r="B113">
+        <v>0.0457876687742652</v>
+      </c>
+      <c r="C113" s="1">
+        <v>4.56173567991116e-5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114">
+        <v>56500</v>
+      </c>
+      <c r="B114">
+        <v>0.0457872797125615</v>
+      </c>
+      <c r="C114" s="1">
+        <v>4.56173567991116e-5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115">
+        <v>57000</v>
+      </c>
+      <c r="B115">
+        <v>0.0457872797125615</v>
+      </c>
+      <c r="C115" s="1">
+        <v>3.62070303679228e-5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116">
+        <v>57500</v>
+      </c>
+      <c r="B116">
+        <v>0.0457868844974854</v>
+      </c>
+      <c r="C116" s="1">
+        <v>3.43330764231615e-5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117">
+        <v>58000</v>
+      </c>
+      <c r="B117">
+        <v>0.0457868844974854</v>
+      </c>
+      <c r="C117" s="1">
+        <v>3.43330764231615e-5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118">
+        <v>58500</v>
+      </c>
+      <c r="B118">
+        <v>0.0457868844974854</v>
+      </c>
+      <c r="C118" s="1">
+        <v>2.08231311058106e-5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119">
+        <v>59000</v>
+      </c>
+      <c r="B119">
+        <v>0.0457868844974854</v>
+      </c>
+      <c r="C119" s="1">
+        <v>2.08231311058106e-5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120">
+        <v>59500</v>
+      </c>
+      <c r="B120">
+        <v>0.0457865494813079</v>
+      </c>
+      <c r="C120" s="1">
+        <v>1.8739553717049e-5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121">
+        <v>60000</v>
+      </c>
+      <c r="B121">
+        <v>0.0457865494813079</v>
+      </c>
+      <c r="C121" s="1">
+        <v>1.8739553717049e-5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122">
+        <v>60500</v>
+      </c>
+      <c r="B122">
+        <v>0.0457798866626687</v>
+      </c>
+      <c r="C122" s="1">
+        <v>1.8739553717049e-5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123">
+        <v>61000</v>
+      </c>
+      <c r="B123">
+        <v>0.0457782191945111</v>
+      </c>
+      <c r="C123" s="1">
+        <v>1.8739553717049e-5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124">
+        <v>61500</v>
+      </c>
+      <c r="B124">
+        <v>0.0457782191945111</v>
+      </c>
+      <c r="C124" s="1">
+        <v>1.8739553717049e-5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125">
+        <v>62000</v>
+      </c>
+      <c r="B125">
+        <v>0.0457782191945111</v>
+      </c>
+      <c r="C125" s="1">
+        <v>1.8739553717049e-5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126">
+        <v>62500</v>
+      </c>
+      <c r="B126">
+        <v>0.0457782191945111</v>
+      </c>
+      <c r="C126" s="1">
+        <v>1.8739553717049e-5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127">
+        <v>63000</v>
+      </c>
+      <c r="B127">
+        <v>0.0457752949036611</v>
+      </c>
+      <c r="C127" s="1">
+        <v>1.8739553717049e-5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128">
+        <v>63500</v>
+      </c>
+      <c r="B128">
+        <v>0.0457752949036611</v>
+      </c>
+      <c r="C128" s="1">
+        <v>1.8739553717049e-5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129">
+        <v>64000</v>
+      </c>
+      <c r="B129">
+        <v>0.0182016435388121</v>
+      </c>
+      <c r="C129" s="1">
+        <v>1.871723182409e-5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130">
+        <v>64500</v>
+      </c>
+      <c r="B130">
+        <v>0.0152836104066175</v>
+      </c>
+      <c r="C130" s="1">
+        <v>1.871723182409e-5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131">
+        <v>65000</v>
+      </c>
+      <c r="B131">
+        <v>0.0152836104066175</v>
+      </c>
+      <c r="C131" s="1">
+        <v>1.871723182409e-5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132">
+        <v>65500</v>
+      </c>
+      <c r="B132">
+        <v>0.0152771898843442</v>
+      </c>
+      <c r="C132" s="1">
+        <v>1.871723182409e-5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133">
+        <v>66000</v>
+      </c>
+      <c r="B133">
+        <v>0.0152771898843442</v>
+      </c>
+      <c r="C133" s="1">
+        <v>1.871723182409e-5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134">
+        <v>66500</v>
+      </c>
+      <c r="B134">
+        <v>0.0152733267201603</v>
+      </c>
+      <c r="C134" s="1">
+        <v>1.871723182409e-5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135">
+        <v>67000</v>
+      </c>
+      <c r="B135">
+        <v>0.0152733267201603</v>
+      </c>
+      <c r="C135" s="1">
+        <v>1.82605502882424e-5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136">
+        <v>67500</v>
+      </c>
+      <c r="B136">
+        <v>0.0152733267201603</v>
+      </c>
+      <c r="C136" s="1">
+        <v>1.69142965322841e-5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137">
+        <v>68000</v>
+      </c>
+      <c r="B137">
+        <v>0.0152733267201603</v>
+      </c>
+      <c r="C137" s="1">
+        <v>1.69142965322841e-5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138">
+        <v>68500</v>
+      </c>
+      <c r="B138">
+        <v>0.0152733267201603</v>
+      </c>
+      <c r="C138" s="1">
+        <v>1.62928570518112e-5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139">
+        <v>69000</v>
+      </c>
+      <c r="B139">
+        <v>0.0152732751800218</v>
+      </c>
+      <c r="C139" s="1">
+        <v>1.62928570518112e-5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140">
+        <v>69500</v>
+      </c>
+      <c r="B140">
+        <v>0.0152724073753676</v>
+      </c>
+      <c r="C140" s="1">
+        <v>1.62928570518112e-5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141">
+        <v>70000</v>
+      </c>
+      <c r="B141">
+        <v>0.0152722660945908</v>
+      </c>
+      <c r="C141" s="1">
+        <v>1.62899059015712e-5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142">
+        <v>70500</v>
+      </c>
+      <c r="B142">
+        <v>0.0152722660945908</v>
+      </c>
+      <c r="C142" s="1">
+        <v>1.55733249531521e-5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143">
+        <v>71000</v>
+      </c>
+      <c r="B143">
+        <v>0.0152722660945908</v>
+      </c>
+      <c r="C143" s="1">
+        <v>1.55733249531521e-5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144">
+        <v>71500</v>
+      </c>
+      <c r="B144">
+        <v>0.0152722660945908</v>
+      </c>
+      <c r="C144" s="1">
+        <v>1.55733249531521e-5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145">
+        <v>72000</v>
+      </c>
+      <c r="B145">
+        <v>0.0152646589861135</v>
+      </c>
+      <c r="C145" s="1">
+        <v>1.55733249531521e-5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146">
+        <v>72500</v>
+      </c>
+      <c r="B146">
+        <v>0.0152645022322623</v>
+      </c>
+      <c r="C146" s="1">
+        <v>1.55733249531521e-5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147">
+        <v>73000</v>
+      </c>
+      <c r="B147">
+        <v>0.0152645022322623</v>
+      </c>
+      <c r="C147" s="1">
+        <v>1.55299916559053e-5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148">
+        <v>73500</v>
+      </c>
+      <c r="B148">
+        <v>0.015263053267557</v>
+      </c>
+      <c r="C148" s="1">
+        <v>1.55299916559053e-5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149">
+        <v>74000</v>
+      </c>
+      <c r="B149">
+        <v>0.015263053267557</v>
+      </c>
+      <c r="C149" s="1">
+        <v>1.55299916559053e-5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150">
+        <v>74500</v>
+      </c>
+      <c r="B150">
+        <v>0.0152629643834573</v>
+      </c>
+      <c r="C150" s="1">
+        <v>1.53211816589994e-5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151">
+        <v>75000</v>
+      </c>
+      <c r="B151">
+        <v>0.0152629643834573</v>
+      </c>
+      <c r="C151" s="1">
+        <v>1.53211816589994e-5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152">
+        <v>75500</v>
+      </c>
+      <c r="B152">
+        <v>0.0152629643834573</v>
+      </c>
+      <c r="C152" s="1">
+        <v>1.53211816589994e-5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153">
+        <v>76000</v>
+      </c>
+      <c r="B153">
+        <v>0.0152623865951644</v>
+      </c>
+      <c r="C153" s="1">
+        <v>1.53211816589994e-5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154">
+        <v>76500</v>
+      </c>
+      <c r="B154">
+        <v>0.0152618173836345</v>
+      </c>
+      <c r="C154" s="1">
+        <v>1.53211816589994e-5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155">
+        <v>77000</v>
+      </c>
+      <c r="B155">
+        <v>0.0152615629878442</v>
+      </c>
+      <c r="C155" s="1">
+        <v>1.53211816589994e-5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156">
+        <v>77500</v>
+      </c>
+      <c r="B156">
+        <v>0.0152615629878442</v>
+      </c>
+      <c r="C156" s="1">
+        <v>1.53211816589994e-5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157">
+        <v>78000</v>
+      </c>
+      <c r="B157">
+        <v>0.0152598155309827</v>
+      </c>
+      <c r="C157" s="1">
+        <v>1.53211816589994e-5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158">
+        <v>78500</v>
+      </c>
+      <c r="B158">
+        <v>0.0152589881106286</v>
+      </c>
+      <c r="C158" s="1">
+        <v>1.53211816589994e-5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159">
+        <v>79000</v>
+      </c>
+      <c r="B159">
+        <v>0.0152589881106286</v>
+      </c>
+      <c r="C159" s="1">
+        <v>1.51690015308943e-5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160">
+        <v>79500</v>
+      </c>
+      <c r="B160">
+        <v>0.0152573756070943</v>
+      </c>
+      <c r="C160" s="1">
+        <v>1.51690015308943e-5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161">
+        <v>80000</v>
+      </c>
+      <c r="B161">
+        <v>0.0152573756070943</v>
+      </c>
+      <c r="C161" s="1">
+        <v>1.51269956735847e-5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162">
+        <v>80500</v>
+      </c>
+      <c r="B162">
+        <v>0.0152573756070943</v>
+      </c>
+      <c r="C162" s="1">
+        <v>1.45052622076754e-5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163">
+        <v>81000</v>
+      </c>
+      <c r="B163" s="1">
+        <v>7.15538050707238e-5</v>
+      </c>
+      <c r="C163" s="1">
+        <v>1.44276233718791e-5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164">
+        <v>81500</v>
+      </c>
+      <c r="B164" s="1">
+        <v>3.15442100736267e-5</v>
+      </c>
+      <c r="C164" s="1">
+        <v>1.40351271767281e-5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165">
+        <v>82000</v>
+      </c>
+      <c r="B165" s="1">
+        <v>3.11934257046154e-5</v>
+      </c>
+      <c r="C165" s="1">
+        <v>1.40351271767281e-5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166">
+        <v>82500</v>
+      </c>
+      <c r="B166" s="1">
+        <v>3.11934257046154e-5</v>
+      </c>
+      <c r="C166" s="1">
+        <v>1.40351271767281e-5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167">
+        <v>83000</v>
+      </c>
+      <c r="B167" s="1">
+        <v>3.11934257046154e-5</v>
+      </c>
+      <c r="C167" s="1">
+        <v>1.40351271767281e-5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168">
+        <v>83500</v>
+      </c>
+      <c r="B168" s="1">
+        <v>2.01560947399942e-5</v>
+      </c>
+      <c r="C168" s="1">
+        <v>1.40351271767281e-5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169">
+        <v>84000</v>
+      </c>
+      <c r="B169" s="1">
+        <v>2.01560947399942e-5</v>
+      </c>
+      <c r="C169" s="1">
+        <v>1.3838890593963e-5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170">
+        <v>84500</v>
+      </c>
+      <c r="B170" s="1">
+        <v>2.01560947399942e-5</v>
+      </c>
+      <c r="C170" s="1">
+        <v>1.34187685512039e-5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171">
+        <v>85000</v>
+      </c>
+      <c r="B171" s="1">
+        <v>2.01560947399942e-5</v>
+      </c>
+      <c r="C171" s="1">
+        <v>1.33552901448878e-5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172">
+        <v>85500</v>
+      </c>
+      <c r="B172" s="1">
+        <v>2.01560947399942e-5</v>
+      </c>
+      <c r="C172" s="1">
+        <v>1.33552901448878e-5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173">
+        <v>86000</v>
+      </c>
+      <c r="B173" s="1">
+        <v>2.01560947399942e-5</v>
+      </c>
+      <c r="C173" s="1">
+        <v>1.31680680343599e-5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174">
+        <v>86500</v>
+      </c>
+      <c r="B174" s="1">
+        <v>1.97456593330021e-5</v>
+      </c>
+      <c r="C174" s="1">
+        <v>1.31680680343599e-5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175">
+        <v>87000</v>
+      </c>
+      <c r="B175" s="1">
+        <v>1.97456593330021e-5</v>
+      </c>
+      <c r="C175" s="1">
+        <v>1.27811454879823e-5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176">
+        <v>87500</v>
+      </c>
+      <c r="B176" s="1">
+        <v>1.89571848111506e-5</v>
+      </c>
+      <c r="C176" s="1">
+        <v>1.23771478939751e-5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177">
+        <v>88000</v>
+      </c>
+      <c r="B177" s="1">
+        <v>1.89571848111506e-5</v>
+      </c>
+      <c r="C177" s="1">
+        <v>1.23771478939751e-5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178">
+        <v>88500</v>
+      </c>
+      <c r="B178" s="1">
+        <v>1.84779420535246e-5</v>
+      </c>
+      <c r="C178" s="1">
+        <v>1.19940193924109e-5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179">
+        <v>89000</v>
+      </c>
+      <c r="B179" s="1">
+        <v>1.84779420535246e-5</v>
+      </c>
+      <c r="C179" s="1">
+        <v>1.19940193924109e-5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180">
+        <v>89500</v>
+      </c>
+      <c r="B180" s="1">
+        <v>1.84779420535246e-5</v>
+      </c>
+      <c r="C180" s="1">
+        <v>1.19940193924109e-5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181">
+        <v>90000</v>
+      </c>
+      <c r="B181" s="1">
+        <v>1.80884477433222e-5</v>
+      </c>
+      <c r="C181" s="1">
+        <v>1.19940193924109e-5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182">
+        <v>90500</v>
+      </c>
+      <c r="B182" s="1">
+        <v>1.80884477433222e-5</v>
+      </c>
+      <c r="C182" s="1">
+        <v>1.19940193924109e-5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183">
+        <v>91000</v>
+      </c>
+      <c r="B183" s="1">
+        <v>1.80884477433222e-5</v>
+      </c>
+      <c r="C183" s="1">
+        <v>1.14741725679817e-5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184">
+        <v>91500</v>
+      </c>
+      <c r="B184" s="1">
+        <v>1.80884477433222e-5</v>
+      </c>
+      <c r="C184" s="1">
+        <v>1.14741725679817e-5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185">
+        <v>92000</v>
+      </c>
+      <c r="B185" s="1">
+        <v>1.80884477433222e-5</v>
+      </c>
+      <c r="C185" s="1">
+        <v>1.14737515127859e-5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186">
+        <v>92500</v>
+      </c>
+      <c r="B186" s="1">
+        <v>1.80884477433222e-5</v>
+      </c>
+      <c r="C186" s="1">
+        <v>1.12454984345033e-5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187">
+        <v>93000</v>
+      </c>
+      <c r="B187" s="1">
+        <v>1.79079274052946e-5</v>
+      </c>
+      <c r="C187" s="1">
+        <v>1.12454984345033e-5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188">
+        <v>93500</v>
+      </c>
+      <c r="B188" s="1">
+        <v>1.77800001741839e-5</v>
+      </c>
+      <c r="C188" s="1">
+        <v>1.124402576959e-5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189">
+        <v>94000</v>
+      </c>
+      <c r="B189" s="1">
+        <v>1.7662162887864e-5</v>
+      </c>
+      <c r="C189" s="1">
+        <v>1.124402576959e-5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190">
+        <v>94500</v>
+      </c>
+      <c r="B190" s="1">
+        <v>1.7662162887864e-5</v>
+      </c>
+      <c r="C190" s="1">
+        <v>1.124402576959e-5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191">
+        <v>95000</v>
+      </c>
+      <c r="B191" s="1">
+        <v>1.75183282481599e-5</v>
+      </c>
+      <c r="C191" s="1">
+        <v>1.124402576959e-5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192">
+        <v>95500</v>
+      </c>
+      <c r="B192" s="1">
+        <v>1.75183282481599e-5</v>
+      </c>
+      <c r="C192" s="1">
+        <v>1.124402576959e-5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193">
+        <v>96000</v>
+      </c>
+      <c r="B193" s="1">
+        <v>1.75183282481599e-5</v>
+      </c>
+      <c r="C193" s="1">
+        <v>1.08728637892797e-5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194">
+        <v>96500</v>
+      </c>
+      <c r="B194" s="1">
+        <v>1.75183282481599e-5</v>
+      </c>
+      <c r="C194" s="1">
+        <v>1.08728637892797e-5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195">
+        <v>97000</v>
+      </c>
+      <c r="B195" s="1">
+        <v>1.75183282481599e-5</v>
+      </c>
+      <c r="C195" s="1">
+        <v>1.08728637892797e-5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196">
+        <v>97500</v>
+      </c>
+      <c r="B196" s="1">
+        <v>1.75183282481599e-5</v>
+      </c>
+      <c r="C196" s="1">
+        <v>1.07050680743931e-5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197">
+        <v>98000</v>
+      </c>
+      <c r="B197" s="1">
+        <v>1.75183282481599e-5</v>
+      </c>
+      <c r="C197" s="1">
+        <v>1.07050680743931e-5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198">
+        <v>98500</v>
+      </c>
+      <c r="B198" s="1">
+        <v>1.68997578142782e-5</v>
+      </c>
+      <c r="C198" s="1">
+        <v>1.02609203059085e-5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199">
+        <v>99000</v>
+      </c>
+      <c r="B199" s="1">
+        <v>1.68997578142782e-5</v>
+      </c>
+      <c r="C199" s="1">
+        <v>1.02609203059085e-5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200">
+        <v>99500</v>
+      </c>
+      <c r="B200" s="1">
+        <v>1.68997578142782e-5</v>
+      </c>
+      <c r="C200" s="1">
+        <v>1.02404003353042e-5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201">
+        <v>100000</v>
+      </c>
+      <c r="B201" s="1">
+        <v>1.68997578142782e-5</v>
+      </c>
+      <c r="C201" s="1">
+        <v>1.02404003353042e-5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/ExecucoesGerais/ex_porcentagem_tunado.xlsx
+++ b/ExecucoesGerais/ex_porcentagem_tunado.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14460" windowHeight="7965" activeTab="5"/>
+    <workbookView windowWidth="19485" windowHeight="7965" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="GRI" sheetId="1" r:id="rId1"/>
@@ -35,15 +35,47 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -65,22 +97,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -93,16 +110,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -112,6 +128,14 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,36 +180,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -202,31 +202,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -238,7 +226,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,7 +268,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,25 +304,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,85 +382,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,15 +393,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -424,7 +415,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -440,6 +431,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,148 +498,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -21253,8 +21253,8 @@
   <sheetPr/>
   <dimension ref="A1:C201"/>
   <sheetViews>
-    <sheetView topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="L187" sqref="L187"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A201" sqref="A2:A201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -23485,8 +23485,8 @@
   <sheetPr/>
   <dimension ref="A1:C201"/>
   <sheetViews>
-    <sheetView topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C201"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C201" sqref="C1:C201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -25717,8 +25717,8 @@
   <sheetPr/>
   <dimension ref="A1:C201"/>
   <sheetViews>
-    <sheetView topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C201"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C201" sqref="C2:C201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -27949,8 +27949,8 @@
   <sheetPr/>
   <dimension ref="A1:C201"/>
   <sheetViews>
-    <sheetView topLeftCell="A183" workbookViewId="0">
-      <selection activeCell="D201" sqref="D201"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C201" sqref="C2:C201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -30181,8 +30181,8 @@
   <sheetPr/>
   <dimension ref="A1:C201"/>
   <sheetViews>
-    <sheetView topLeftCell="A183" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C201" sqref="C2:C201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -32413,8 +32413,8 @@
   <sheetPr/>
   <dimension ref="A1:C201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="F189" sqref="F189"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C201" sqref="C2:C201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
